--- a/Data/item_wise_yesterday_sales_copy.xlsx
+++ b/Data/item_wise_yesterday_sales_copy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="158">
   <si>
     <t>BSL NO</t>
   </si>
@@ -145,21 +145,21 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Augment 375 Tablet 18's</t>
+  </si>
+  <si>
     <t>Augment 625 Tablet 18's</t>
   </si>
   <si>
     <t>Augment 1.2g IV Injection 1's</t>
   </si>
   <si>
-    <t>Augment 375 Tablet 18's</t>
+    <t>Augment 100ml PFS</t>
   </si>
   <si>
     <t>Augment 1gm Tablet 12's</t>
   </si>
   <si>
-    <t>Augment 100ml PFS</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -169,75 +169,75 @@
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 60mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 50ml Suspension</t>
   </si>
   <si>
+    <t>Dinafex 180mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 120mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 180mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
     <t>Etorix 90mg Tablet 40's</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet 30's</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet 50's</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet 30's</t>
+    <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 5mg Tablet</t>
   </si>
   <si>
-    <t>Fenobac 10mg Tablet</t>
+    <t>Flucloxin 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Flucloxin 500mg Capsule 40's</t>
   </si>
   <si>
     <t>Flucloxin 250mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg Capsule 40's</t>
-  </si>
-  <si>
     <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
+    <t>Ketonic 60mg IM Injection</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
     <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Ketonic 60mg IM Injection</t>
+    <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
     <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
-    <t>Levomax 500mg Tablet - 20's</t>
+    <t>Lindamax 150mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax 300mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax Plus 10gm Gel</t>
   </si>
   <si>
     <t>Lindamax 25ml Lotion</t>
   </si>
   <si>
-    <t>Lindamax 300mg Capsule</t>
-  </si>
-  <si>
-    <t>Lindamax 150mg Capsule</t>
-  </si>
-  <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -247,39 +247,39 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox 15gm Gel</t>
+  </si>
+  <si>
     <t>Naprox 50ml Suspension</t>
   </si>
   <si>
-    <t>Naprox 15gm Gel</t>
+    <t>Naprox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
   </si>
   <si>
     <t>Naprox Plus 500mg Tablet - 36's</t>
   </si>
   <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
     <t>Naprox 500mg Tablet</t>
   </si>
   <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
+    <t>Ontin 10mg Tablet</t>
   </si>
   <si>
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
-    <t>Ontin 10mg Tablet</t>
+    <t>Oradin 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Oradin 60ml Suspension</t>
   </si>
   <si>
     <t>Oradin FT 10mg Tablet</t>
   </si>
   <si>
-    <t>Oradin 60ml Suspension</t>
-  </si>
-  <si>
-    <t>Oradin 10mg Tablet</t>
-  </si>
-  <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
@@ -292,42 +292,48 @@
     <t>Quinox 750mg Tablet</t>
   </si>
   <si>
+    <t>Quinox 500mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet (40's)</t>
+  </si>
+  <si>
+    <t>Quinox 100ml IV Infusion</t>
+  </si>
+  <si>
     <t>Quinox DS 60ml Pellets for Suspension</t>
   </si>
   <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet (40's)</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet - 20's</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Sk-Mox DS 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Sk-Mox 250mg Capsule</t>
   </si>
   <si>
-    <t>Sk-Mox 15ml P/D</t>
+    <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
     <t>Sk-Mox 500mg Capsule 50's</t>
   </si>
   <si>
+    <t>Stiba 10mg Tablet - 30's</t>
+  </si>
+  <si>
     <t>Stiba 30ml Syrup</t>
   </si>
   <si>
-    <t>Stiba 10mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
@@ -337,12 +343,12 @@
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
+    <t>Timothy 5mg IM/IV</t>
+  </si>
+  <si>
     <t>Timothy 50mg Tablet</t>
   </si>
   <si>
-    <t>Timothy 5mg IM/IV</t>
-  </si>
-  <si>
     <t>Tojak 5mg Tablet 10's</t>
   </si>
   <si>
@@ -364,21 +370,21 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>Zithrox 20ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 35ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 50ml Powder for Suspension</t>
   </si>
   <si>
-    <t>Zithrox 35ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 20ml Powder for Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
     <t>18's</t>
   </si>
   <si>
@@ -397,21 +403,21 @@
     <t>50 's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>50 ml</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100 ml</t>
   </si>
   <si>
+    <t>30's</t>
+  </si>
+  <si>
     <t>50's</t>
   </si>
   <si>
-    <t>30's</t>
-  </si>
-  <si>
     <t>30 's</t>
   </si>
   <si>
@@ -421,12 +427,12 @@
     <t>1 's</t>
   </si>
   <si>
+    <t>20 's</t>
+  </si>
+  <si>
     <t>10 's</t>
   </si>
   <si>
-    <t>20 's</t>
-  </si>
-  <si>
     <t>10gm</t>
   </si>
   <si>
@@ -439,18 +445,21 @@
     <t>15 gm</t>
   </si>
   <si>
+    <t xml:space="preserve"> 50 's</t>
+  </si>
+  <si>
     <t>36's</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50 's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
     <t>15 ml</t>
   </si>
   <si>
+    <t>48 's</t>
+  </si>
+  <si>
     <t>30ml</t>
   </si>
   <si>
@@ -469,16 +478,16 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>12 's</t>
+  </si>
+  <si>
+    <t>20ml</t>
+  </si>
+  <si>
+    <t>35ml</t>
+  </si>
+  <si>
     <t>50ml</t>
-  </si>
-  <si>
-    <t>35ml</t>
-  </si>
-  <si>
-    <t>12 's</t>
-  </si>
-  <si>
-    <t>20ml</t>
   </si>
 </sst>
 </file>
@@ -836,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -894,19 +903,19 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="G2">
-        <v>337.33</v>
+        <v>269.87</v>
       </c>
       <c r="H2">
-        <v>111993.56</v>
+        <v>21319.73</v>
       </c>
       <c r="I2">
-        <v>111993.56</v>
+        <v>21319.73</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -926,19 +935,19 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F3">
-        <v>178</v>
+        <v>437</v>
       </c>
       <c r="G3">
-        <v>206.15</v>
+        <v>337.33</v>
       </c>
       <c r="H3">
-        <v>36694.7</v>
+        <v>147413.21</v>
       </c>
       <c r="I3">
-        <v>36694.7</v>
+        <v>147413.21</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -958,19 +967,19 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F4">
-        <v>65</v>
+        <v>654</v>
       </c>
       <c r="G4">
-        <v>269.87</v>
+        <v>206.15</v>
       </c>
       <c r="H4">
-        <v>17541.55</v>
+        <v>134822.1</v>
       </c>
       <c r="I4">
-        <v>17541.55</v>
+        <v>134822.1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -990,19 +999,19 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F5">
-        <v>88</v>
+        <v>290</v>
       </c>
       <c r="G5">
-        <v>269.87</v>
+        <v>131.18</v>
       </c>
       <c r="H5">
-        <v>23748.56</v>
+        <v>38042.2</v>
       </c>
       <c r="I5">
-        <v>23748.56</v>
+        <v>38042.2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1022,19 +1031,19 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F6">
-        <v>242</v>
+        <v>117</v>
       </c>
       <c r="G6">
-        <v>131.18</v>
+        <v>269.87</v>
       </c>
       <c r="H6">
-        <v>31745.56</v>
+        <v>31574.79</v>
       </c>
       <c r="I6">
-        <v>31745.56</v>
+        <v>31574.79</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1054,19 +1063,19 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F7">
-        <v>1911</v>
+        <v>2236</v>
       </c>
       <c r="G7">
         <v>224.89</v>
       </c>
       <c r="H7">
-        <v>429764.79</v>
+        <v>502854.04</v>
       </c>
       <c r="I7">
-        <v>429764.79</v>
+        <v>502854.04</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1086,19 +1095,19 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>239.88</v>
       </c>
       <c r="H8">
-        <v>479.76</v>
+        <v>1439.28</v>
       </c>
       <c r="I8">
-        <v>479.76</v>
+        <v>1439.28</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1118,19 +1127,19 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>112.45</v>
       </c>
       <c r="H9">
-        <v>2361.45</v>
+        <v>3710.85</v>
       </c>
       <c r="I9">
-        <v>2361.45</v>
+        <v>3710.85</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1150,19 +1159,19 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F10">
-        <v>1569</v>
+        <v>141</v>
       </c>
       <c r="G10">
-        <v>35.98</v>
+        <v>104.95</v>
       </c>
       <c r="H10">
-        <v>56452.62</v>
+        <v>14797.95</v>
       </c>
       <c r="I10">
-        <v>56452.62</v>
+        <v>14797.95</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1182,19 +1191,19 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F11">
-        <v>526</v>
+        <v>2109</v>
       </c>
       <c r="G11">
-        <v>239.88</v>
+        <v>35.98</v>
       </c>
       <c r="H11">
-        <v>126176.88</v>
+        <v>75881.82000000001</v>
       </c>
       <c r="I11">
-        <v>126176.88</v>
+        <v>75881.82000000001</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1214,19 +1223,19 @@
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F12">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="G12">
         <v>299.85</v>
       </c>
       <c r="H12">
-        <v>24887.55</v>
+        <v>32083.95</v>
       </c>
       <c r="I12">
-        <v>24887.55</v>
+        <v>32083.95</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1246,19 +1255,19 @@
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F13">
-        <v>81</v>
+        <v>731</v>
       </c>
       <c r="G13">
-        <v>104.95</v>
+        <v>239.88</v>
       </c>
       <c r="H13">
-        <v>8500.950000000001</v>
+        <v>175352.28</v>
       </c>
       <c r="I13">
-        <v>8500.950000000001</v>
+        <v>175352.28</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1278,19 +1287,19 @@
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F14">
-        <v>1475</v>
+        <v>1519</v>
       </c>
       <c r="G14">
         <v>29.99</v>
       </c>
       <c r="H14">
-        <v>44235.25</v>
+        <v>45554.81</v>
       </c>
       <c r="I14">
-        <v>44235.25</v>
+        <v>45554.81</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1310,19 +1319,19 @@
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F15">
-        <v>2218</v>
+        <v>2527</v>
       </c>
       <c r="G15">
         <v>359.82</v>
       </c>
       <c r="H15">
-        <v>798080.76</v>
+        <v>909265.14</v>
       </c>
       <c r="I15">
-        <v>798080.76</v>
+        <v>909265.14</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1342,19 +1351,19 @@
         <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F16">
-        <v>1027</v>
+        <v>2684</v>
       </c>
       <c r="G16">
-        <v>262.37</v>
+        <v>314.84</v>
       </c>
       <c r="H16">
-        <v>269453.99</v>
+        <v>845030.5600000001</v>
       </c>
       <c r="I16">
-        <v>269453.99</v>
+        <v>845030.5600000001</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1374,19 +1383,19 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F17">
-        <v>2458</v>
+        <v>1098</v>
       </c>
       <c r="G17">
-        <v>314.84</v>
+        <v>262.37</v>
       </c>
       <c r="H17">
-        <v>773876.72</v>
+        <v>288082.26</v>
       </c>
       <c r="I17">
-        <v>773876.72</v>
+        <v>288082.26</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1406,19 +1415,19 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F18">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="G18">
-        <v>168.67</v>
+        <v>179.91</v>
       </c>
       <c r="H18">
-        <v>6578.13</v>
+        <v>21769.11</v>
       </c>
       <c r="I18">
-        <v>6578.13</v>
+        <v>21769.11</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1438,19 +1447,19 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F19">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="G19">
-        <v>179.91</v>
+        <v>168.67</v>
       </c>
       <c r="H19">
-        <v>16911.54</v>
+        <v>11132.22</v>
       </c>
       <c r="I19">
-        <v>16911.54</v>
+        <v>11132.22</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1470,22 +1479,22 @@
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F20">
-        <v>280</v>
+        <v>5183</v>
       </c>
       <c r="G20">
-        <v>432.53</v>
+        <v>45.73</v>
       </c>
       <c r="H20">
-        <v>121108.4</v>
+        <v>237018.59</v>
       </c>
       <c r="I20">
-        <v>121108.4</v>
+        <v>201806.49</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>35212.1</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1505,19 +1514,19 @@
         <v>129</v>
       </c>
       <c r="F21">
-        <v>4864</v>
+        <v>3077</v>
       </c>
       <c r="G21">
-        <v>45.73</v>
+        <v>314.84</v>
       </c>
       <c r="H21">
-        <v>222430.72</v>
+        <v>968762.6800000001</v>
       </c>
       <c r="I21">
-        <v>190602.64</v>
+        <v>912091.48</v>
       </c>
       <c r="J21">
-        <v>31828.08</v>
+        <v>56671.2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1534,22 +1543,22 @@
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F22">
-        <v>2601</v>
+        <v>349</v>
       </c>
       <c r="G22">
-        <v>314.84</v>
+        <v>432.53</v>
       </c>
       <c r="H22">
-        <v>818898.84</v>
+        <v>150952.97</v>
       </c>
       <c r="I22">
-        <v>772302.52</v>
+        <v>150952.97</v>
       </c>
       <c r="J22">
-        <v>46596.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1566,19 +1575,19 @@
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F23">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="G23">
         <v>33.94</v>
       </c>
       <c r="H23">
-        <v>15137.24</v>
+        <v>12795.38</v>
       </c>
       <c r="I23">
-        <v>15137.24</v>
+        <v>12795.38</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1598,22 +1607,22 @@
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F24">
-        <v>1092</v>
+        <v>1369</v>
       </c>
       <c r="G24">
-        <v>22.83</v>
+        <v>37.61</v>
       </c>
       <c r="H24">
-        <v>24930.36</v>
+        <v>51488.09</v>
       </c>
       <c r="I24">
-        <v>24967.16</v>
+        <v>51488.09</v>
       </c>
       <c r="J24">
-        <v>-36.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1630,19 +1639,19 @@
         <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F25">
-        <v>140</v>
+        <v>1678</v>
       </c>
       <c r="G25">
-        <v>224.89</v>
+        <v>22.83</v>
       </c>
       <c r="H25">
-        <v>31484.6</v>
+        <v>38308.74</v>
       </c>
       <c r="I25">
-        <v>31484.6</v>
+        <v>38308.74</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1662,19 +1671,19 @@
         <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F26">
-        <v>1244</v>
+        <v>164</v>
       </c>
       <c r="G26">
-        <v>37.61</v>
+        <v>224.89</v>
       </c>
       <c r="H26">
-        <v>46786.84</v>
+        <v>36881.96</v>
       </c>
       <c r="I26">
-        <v>46786.84</v>
+        <v>36881.96</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1694,19 +1703,19 @@
         <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="G27">
-        <v>149.93</v>
+        <v>224.89</v>
       </c>
       <c r="H27">
-        <v>899.58</v>
+        <v>11919.17</v>
       </c>
       <c r="I27">
-        <v>899.58</v>
+        <v>11919.17</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1726,19 +1735,19 @@
         <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F28">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>224.89</v>
+        <v>149.93</v>
       </c>
       <c r="H28">
-        <v>13493.4</v>
+        <v>599.72</v>
       </c>
       <c r="I28">
-        <v>13493.4</v>
+        <v>599.72</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1758,19 +1767,19 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F29">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G29">
-        <v>93.7</v>
+        <v>179.91</v>
       </c>
       <c r="H29">
-        <v>3748</v>
+        <v>1979.01</v>
       </c>
       <c r="I29">
-        <v>3748</v>
+        <v>1979.01</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1790,19 +1799,19 @@
         <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F30">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="G30">
         <v>337.33</v>
       </c>
       <c r="H30">
-        <v>16191.84</v>
+        <v>24962.42</v>
       </c>
       <c r="I30">
-        <v>16191.84</v>
+        <v>24962.42</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1822,19 +1831,19 @@
         <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="G31">
-        <v>179.91</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="H31">
-        <v>1259.37</v>
+        <v>6027.32</v>
       </c>
       <c r="I31">
-        <v>1259.37</v>
+        <v>6027.32</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1854,19 +1863,19 @@
         <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F32">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G32">
-        <v>89.95999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="H32">
-        <v>3418.48</v>
+        <v>4591.3</v>
       </c>
       <c r="I32">
-        <v>3418.48</v>
+        <v>4591.3</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1886,19 +1895,19 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F33">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G33">
         <v>449.78</v>
       </c>
       <c r="H33">
-        <v>9445.379999999999</v>
+        <v>10344.94</v>
       </c>
       <c r="I33">
-        <v>9445.379999999999</v>
+        <v>10344.94</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1918,19 +1927,19 @@
         <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F34">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="G34">
         <v>395.8</v>
       </c>
       <c r="H34">
-        <v>47100.2</v>
+        <v>54224.6</v>
       </c>
       <c r="I34">
-        <v>47100.2</v>
+        <v>54224.6</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1950,19 +1959,19 @@
         <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F35">
-        <v>950</v>
+        <v>935</v>
       </c>
       <c r="G35">
         <v>337.33</v>
       </c>
       <c r="H35">
-        <v>320463.5</v>
+        <v>315403.55</v>
       </c>
       <c r="I35">
-        <v>320463.5</v>
+        <v>315403.55</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1982,19 +1991,19 @@
         <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F36">
-        <v>275</v>
+        <v>53</v>
       </c>
       <c r="G36">
         <v>52.47</v>
       </c>
       <c r="H36">
-        <v>14429.25</v>
+        <v>2780.91</v>
       </c>
       <c r="I36">
-        <v>14429.25</v>
+        <v>2780.91</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2014,19 +2023,19 @@
         <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F37">
-        <v>40</v>
+        <v>420</v>
       </c>
       <c r="G37">
         <v>52.47</v>
       </c>
       <c r="H37">
-        <v>2098.8</v>
+        <v>22037.4</v>
       </c>
       <c r="I37">
-        <v>2098.8</v>
+        <v>22037.4</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2046,19 +2055,19 @@
         <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F38">
-        <v>661</v>
+        <v>267</v>
       </c>
       <c r="G38">
-        <v>350.82</v>
+        <v>262.37</v>
       </c>
       <c r="H38">
-        <v>231892.02</v>
+        <v>70052.78999999999</v>
       </c>
       <c r="I38">
-        <v>231892.02</v>
+        <v>70052.78999999999</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2078,19 +2087,19 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F39">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="G39">
-        <v>262.37</v>
+        <v>247.38</v>
       </c>
       <c r="H39">
-        <v>60345.1</v>
+        <v>83119.67999999999</v>
       </c>
       <c r="I39">
-        <v>60345.1</v>
+        <v>83119.67999999999</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2110,19 +2119,19 @@
         <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F40">
-        <v>593</v>
+        <v>732</v>
       </c>
       <c r="G40">
-        <v>412.3</v>
+        <v>350.82</v>
       </c>
       <c r="H40">
-        <v>244493.9</v>
+        <v>256800.24</v>
       </c>
       <c r="I40">
-        <v>244493.9</v>
+        <v>256800.24</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2142,19 +2151,19 @@
         <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F41">
-        <v>289</v>
+        <v>650</v>
       </c>
       <c r="G41">
-        <v>247.38</v>
+        <v>412.3</v>
       </c>
       <c r="H41">
-        <v>71492.82000000001</v>
+        <v>267995</v>
       </c>
       <c r="I41">
-        <v>71492.82000000001</v>
+        <v>267995</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2174,19 +2183,19 @@
         <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F42">
-        <v>455</v>
+        <v>36</v>
       </c>
       <c r="G42">
-        <v>22.49</v>
+        <v>224.89</v>
       </c>
       <c r="H42">
-        <v>10232.95</v>
+        <v>8096.04</v>
       </c>
       <c r="I42">
-        <v>10232.95</v>
+        <v>8096.04</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2206,19 +2215,19 @@
         <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F43">
-        <v>41</v>
+        <v>345</v>
       </c>
       <c r="G43">
-        <v>224.89</v>
+        <v>22.49</v>
       </c>
       <c r="H43">
-        <v>9220.49</v>
+        <v>7759.05</v>
       </c>
       <c r="I43">
-        <v>9220.49</v>
+        <v>7759.05</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2238,19 +2247,19 @@
         <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F44">
-        <v>38</v>
+        <v>1296</v>
       </c>
       <c r="G44">
-        <v>119.94</v>
+        <v>299.85</v>
       </c>
       <c r="H44">
-        <v>4557.72</v>
+        <v>388605.6</v>
       </c>
       <c r="I44">
-        <v>4557.72</v>
+        <v>388605.6</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2270,22 +2279,22 @@
         <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F45">
-        <v>1692</v>
+        <v>1731</v>
       </c>
       <c r="G45">
         <v>22.49</v>
       </c>
       <c r="H45">
-        <v>38053.08</v>
+        <v>38930.19</v>
       </c>
       <c r="I45">
-        <v>37940.63</v>
+        <v>38660.31</v>
       </c>
       <c r="J45">
-        <v>112.45</v>
+        <v>269.88</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2302,19 +2311,19 @@
         <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F46">
-        <v>1090</v>
+        <v>59</v>
       </c>
       <c r="G46">
-        <v>299.85</v>
+        <v>119.94</v>
       </c>
       <c r="H46">
-        <v>326836.5</v>
+        <v>7076.46</v>
       </c>
       <c r="I46">
-        <v>326836.5</v>
+        <v>7076.46</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2334,19 +2343,19 @@
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F47">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G47">
         <v>269.87</v>
       </c>
       <c r="H47">
-        <v>8635.84</v>
+        <v>11334.54</v>
       </c>
       <c r="I47">
-        <v>8635.84</v>
+        <v>11334.54</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2366,19 +2375,19 @@
         <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F48">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="G48">
         <v>269.87</v>
       </c>
       <c r="H48">
-        <v>73944.38</v>
+        <v>84739.17999999999</v>
       </c>
       <c r="I48">
-        <v>73944.38</v>
+        <v>84739.17999999999</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2398,19 +2407,19 @@
         <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F49">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="G49">
         <v>299.85</v>
       </c>
       <c r="H49">
-        <v>26986.5</v>
+        <v>35082.45</v>
       </c>
       <c r="I49">
-        <v>26986.5</v>
+        <v>35082.45</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2430,19 +2439,19 @@
         <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G50">
         <v>134.93</v>
       </c>
       <c r="H50">
-        <v>1349.3</v>
+        <v>944.51</v>
       </c>
       <c r="I50">
-        <v>1349.3</v>
+        <v>944.51</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2462,22 +2471,22 @@
         <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F51">
-        <v>1806</v>
+        <v>9</v>
       </c>
       <c r="G51">
-        <v>74.95999999999999</v>
+        <v>224.89</v>
       </c>
       <c r="H51">
-        <v>135377.76</v>
+        <v>2024.01</v>
       </c>
       <c r="I51">
-        <v>121060.4</v>
+        <v>224.89</v>
       </c>
       <c r="J51">
-        <v>14317.36</v>
+        <v>1799.12</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2494,19 +2503,19 @@
         <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F52">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G52">
         <v>191.15</v>
       </c>
       <c r="H52">
-        <v>2102.65</v>
+        <v>1338.05</v>
       </c>
       <c r="I52">
-        <v>2102.65</v>
+        <v>1338.05</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2526,22 +2535,22 @@
         <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F53">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="G53">
         <v>449.78</v>
       </c>
       <c r="H53">
-        <v>117842.36</v>
+        <v>101650.28</v>
       </c>
       <c r="I53">
-        <v>107947.2</v>
+        <v>94903.58</v>
       </c>
       <c r="J53">
-        <v>9895.16</v>
+        <v>6746.7</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2558,30 +2567,30 @@
         <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F54">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G54">
-        <v>224.89</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H54">
-        <v>3148.46</v>
+        <v>224.88</v>
       </c>
       <c r="I54">
-        <v>674.67</v>
+        <v>224.88</v>
       </c>
       <c r="J54">
-        <v>2473.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -2590,30 +2599,30 @@
         <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F55">
-        <v>111</v>
+        <v>1567</v>
       </c>
       <c r="G55">
-        <v>224.89</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H55">
-        <v>24962.79</v>
+        <v>117462.32</v>
       </c>
       <c r="I55">
-        <v>24962.79</v>
+        <v>105093.92</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>12368.4</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -2622,19 +2631,19 @@
         <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F56">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="G56">
-        <v>51.12</v>
+        <v>224.89</v>
       </c>
       <c r="H56">
-        <v>2249.28</v>
+        <v>30360.15</v>
       </c>
       <c r="I56">
-        <v>2249.28</v>
+        <v>30360.15</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2654,19 +2663,19 @@
         <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="F57">
-        <v>792</v>
+        <v>134</v>
       </c>
       <c r="G57">
-        <v>35.68</v>
+        <v>22.64</v>
       </c>
       <c r="H57">
-        <v>28258.56</v>
+        <v>3033.76</v>
       </c>
       <c r="I57">
-        <v>28258.56</v>
+        <v>3033.76</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2686,19 +2695,19 @@
         <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F58">
-        <v>52</v>
+        <v>1050</v>
       </c>
       <c r="G58">
-        <v>266.12</v>
+        <v>35.68</v>
       </c>
       <c r="H58">
-        <v>13838.24</v>
+        <v>37464</v>
       </c>
       <c r="I58">
-        <v>13838.24</v>
+        <v>37464</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2718,19 +2727,19 @@
         <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F59">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="G59">
-        <v>22.64</v>
+        <v>51.12</v>
       </c>
       <c r="H59">
-        <v>4595.92</v>
+        <v>3936.24</v>
       </c>
       <c r="I59">
-        <v>4595.92</v>
+        <v>3936.24</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2750,19 +2759,19 @@
         <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F60">
-        <v>1109</v>
+        <v>54</v>
       </c>
       <c r="G60">
-        <v>228.26</v>
+        <v>266.12</v>
       </c>
       <c r="H60">
-        <v>253140.34</v>
+        <v>14370.48</v>
       </c>
       <c r="I60">
-        <v>253140.34</v>
+        <v>14370.48</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2770,10 +2779,10 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -2782,19 +2791,19 @@
         <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F61">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G61">
-        <v>44.98</v>
+        <v>219.13</v>
       </c>
       <c r="H61">
-        <v>989.5599999999999</v>
+        <v>438.26</v>
       </c>
       <c r="I61">
-        <v>989.5599999999999</v>
+        <v>438.26</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2802,10 +2811,10 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -2814,19 +2823,19 @@
         <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F62">
-        <v>145</v>
+        <v>1370</v>
       </c>
       <c r="G62">
-        <v>179.91</v>
+        <v>228.26</v>
       </c>
       <c r="H62">
-        <v>26086.95</v>
+        <v>312716.2</v>
       </c>
       <c r="I62">
-        <v>26086.95</v>
+        <v>312716.2</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2834,10 +2843,10 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -2846,19 +2855,19 @@
         <v>104</v>
       </c>
       <c r="E63" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F63">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="G63">
-        <v>187.41</v>
+        <v>179.91</v>
       </c>
       <c r="H63">
-        <v>12181.65</v>
+        <v>35982</v>
       </c>
       <c r="I63">
-        <v>12181.65</v>
+        <v>35982</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2866,10 +2875,10 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -2878,19 +2887,19 @@
         <v>105</v>
       </c>
       <c r="E64" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="F64">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="G64">
-        <v>142.43</v>
+        <v>44.98</v>
       </c>
       <c r="H64">
-        <v>35892.36</v>
+        <v>629.72</v>
       </c>
       <c r="I64">
-        <v>35892.36</v>
+        <v>629.72</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2898,10 +2907,10 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -2910,19 +2919,19 @@
         <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F65">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="G65">
-        <v>179.91</v>
+        <v>187.41</v>
       </c>
       <c r="H65">
-        <v>14572.71</v>
+        <v>9745.32</v>
       </c>
       <c r="I65">
-        <v>14572.71</v>
+        <v>9745.32</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2930,10 +2939,10 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -2948,13 +2957,13 @@
         <v>239</v>
       </c>
       <c r="G66">
-        <v>149.93</v>
+        <v>142.43</v>
       </c>
       <c r="H66">
-        <v>35833.27</v>
+        <v>34040.77</v>
       </c>
       <c r="I66">
-        <v>35833.27</v>
+        <v>34040.77</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2962,10 +2971,10 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -2974,19 +2983,19 @@
         <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F67">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="G67">
-        <v>56.22</v>
+        <v>179.91</v>
       </c>
       <c r="H67">
-        <v>8039.46</v>
+        <v>15652.17</v>
       </c>
       <c r="I67">
-        <v>8039.46</v>
+        <v>15652.17</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -2994,10 +3003,10 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -3006,19 +3015,19 @@
         <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F68">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="G68">
-        <v>359.82</v>
+        <v>56.22</v>
       </c>
       <c r="H68">
-        <v>102908.52</v>
+        <v>4385.16</v>
       </c>
       <c r="I68">
-        <v>102908.52</v>
+        <v>4385.16</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3026,10 +3035,10 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -3038,19 +3047,19 @@
         <v>110</v>
       </c>
       <c r="E69" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="F69">
-        <v>50</v>
+        <v>420</v>
       </c>
       <c r="G69">
-        <v>134.93</v>
+        <v>149.93</v>
       </c>
       <c r="H69">
-        <v>6746.5</v>
+        <v>62970.6</v>
       </c>
       <c r="I69">
-        <v>6746.5</v>
+        <v>62970.6</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3058,10 +3067,10 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -3070,30 +3079,30 @@
         <v>111</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F70">
-        <v>2117</v>
+        <v>247</v>
       </c>
       <c r="G70">
-        <v>41.23</v>
+        <v>359.82</v>
       </c>
       <c r="H70">
-        <v>87283.91</v>
+        <v>88875.53999999999</v>
       </c>
       <c r="I70">
-        <v>79903.74000000001</v>
+        <v>88875.53999999999</v>
       </c>
       <c r="J70">
-        <v>7380.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -3102,19 +3111,19 @@
         <v>112</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F71">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="G71">
-        <v>187.41</v>
+        <v>134.93</v>
       </c>
       <c r="H71">
-        <v>23613.66</v>
+        <v>6071.85</v>
       </c>
       <c r="I71">
-        <v>23613.66</v>
+        <v>6071.85</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3122,10 +3131,10 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -3134,30 +3143,30 @@
         <v>113</v>
       </c>
       <c r="E72" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F72">
-        <v>102</v>
+        <v>2771</v>
       </c>
       <c r="G72">
-        <v>299.85</v>
+        <v>41.23</v>
       </c>
       <c r="H72">
-        <v>30584.7</v>
+        <v>114248.33</v>
       </c>
       <c r="I72">
-        <v>30584.7</v>
+        <v>104641.74</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>9606.59</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -3166,19 +3175,19 @@
         <v>114</v>
       </c>
       <c r="E73" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F73">
-        <v>6</v>
+        <v>184</v>
       </c>
       <c r="G73">
-        <v>134.93</v>
+        <v>187.41</v>
       </c>
       <c r="H73">
-        <v>809.58</v>
+        <v>34483.44</v>
       </c>
       <c r="I73">
-        <v>809.58</v>
+        <v>34483.44</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -3186,10 +3195,10 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -3198,19 +3207,19 @@
         <v>115</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F74">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="G74">
-        <v>29.99</v>
+        <v>299.85</v>
       </c>
       <c r="H74">
-        <v>4768.41</v>
+        <v>40479.75</v>
       </c>
       <c r="I74">
-        <v>4768.41</v>
+        <v>40479.75</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3218,10 +3227,10 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -3233,16 +3242,16 @@
         <v>151</v>
       </c>
       <c r="F75">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="G75">
-        <v>143.93</v>
+        <v>134.93</v>
       </c>
       <c r="H75">
-        <v>24899.89</v>
+        <v>2023.95</v>
       </c>
       <c r="I75">
-        <v>24899.89</v>
+        <v>2023.95</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3250,10 +3259,10 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -3262,22 +3271,22 @@
         <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F76">
-        <v>1460</v>
+        <v>154</v>
       </c>
       <c r="G76">
-        <v>104.95</v>
+        <v>29.99</v>
       </c>
       <c r="H76">
-        <v>153227</v>
+        <v>4618.46</v>
       </c>
       <c r="I76">
-        <v>146405.25</v>
+        <v>4618.46</v>
       </c>
       <c r="J76">
-        <v>6821.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3294,22 +3303,22 @@
         <v>118</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="F77">
-        <v>1780</v>
+        <v>239</v>
       </c>
       <c r="G77">
-        <v>314.84</v>
+        <v>224.89</v>
       </c>
       <c r="H77">
-        <v>560415.2</v>
+        <v>53748.71</v>
       </c>
       <c r="I77">
-        <v>532079.6</v>
+        <v>53748.71</v>
       </c>
       <c r="J77">
-        <v>28335.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3329,19 +3338,19 @@
         <v>154</v>
       </c>
       <c r="F78">
-        <v>626</v>
+        <v>1662</v>
       </c>
       <c r="G78">
-        <v>71.20999999999999</v>
+        <v>314.84</v>
       </c>
       <c r="H78">
-        <v>44577.46</v>
+        <v>523264.08</v>
       </c>
       <c r="I78">
-        <v>42726</v>
+        <v>499021.4</v>
       </c>
       <c r="J78">
-        <v>1851.46</v>
+        <v>24242.68</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3358,21 +3367,85 @@
         <v>120</v>
       </c>
       <c r="E79" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="F79">
-        <v>167</v>
+        <v>599</v>
       </c>
       <c r="G79">
-        <v>224.89</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="H79">
-        <v>37556.63</v>
+        <v>42654.79</v>
       </c>
       <c r="I79">
-        <v>37556.63</v>
+        <v>40874.54</v>
       </c>
       <c r="J79">
+        <v>1780.25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="D80" t="s">
+        <v>121</v>
+      </c>
+      <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80">
+        <v>1657</v>
+      </c>
+      <c r="G80">
+        <v>104.95</v>
+      </c>
+      <c r="H80">
+        <v>173902.15</v>
+      </c>
+      <c r="I80">
+        <v>167185.35</v>
+      </c>
+      <c r="J80">
+        <v>6716.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81">
+        <v>35</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81" t="s">
+        <v>157</v>
+      </c>
+      <c r="F81">
+        <v>132</v>
+      </c>
+      <c r="G81">
+        <v>143.93</v>
+      </c>
+      <c r="H81">
+        <v>18998.76</v>
+      </c>
+      <c r="I81">
+        <v>18998.76</v>
+      </c>
+      <c r="J81">
         <v>0</v>
       </c>
     </row>

--- a/Data/item_wise_yesterday_sales_copy.xlsx
+++ b/Data/item_wise_yesterday_sales_copy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="156">
   <si>
     <t>BSL NO</t>
   </si>
@@ -154,12 +154,12 @@
     <t>Augment 1.2g IV Injection 1's</t>
   </si>
   <si>
+    <t>Augment 1gm Tablet 12's</t>
+  </si>
+  <si>
     <t>Augment 100ml PFS</t>
   </si>
   <si>
-    <t>Augment 1gm Tablet 12's</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -169,75 +169,75 @@
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 120mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 50ml Suspension</t>
+  </si>
+  <si>
     <t>Dinafex 60mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 50ml Suspension</t>
-  </si>
-  <si>
     <t>Dinafex 180mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 120mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet 50's</t>
+  </si>
+  <si>
+    <t>Etorix 120mg Tablet 30's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet 40's</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Etorix 60mg Tablet 50's</t>
-  </si>
-  <si>
     <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 5mg Tablet</t>
   </si>
   <si>
+    <t>Flucloxin 250mg Capsule</t>
+  </si>
+  <si>
+    <t>Flucloxin 500mg Capsule 40's</t>
+  </si>
+  <si>
+    <t>Flucloxin 500mg IM/IV Injection</t>
+  </si>
+  <si>
     <t>Flucloxin 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule 40's</t>
-  </si>
-  <si>
-    <t>Flucloxin 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg IM/IV Injection</t>
+    <t>Ketonic 30mg IM/IV Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
     <t>Ketonic 60mg IM Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet - 30's</t>
+    <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
-    <t>Levomax 750mg Tablet - 10's</t>
+    <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
     <t>Lindamax 150mg Capsule</t>
   </si>
   <si>
-    <t>Lindamax 300mg Capsule</t>
+    <t>Lindamax 25ml Lotion</t>
   </si>
   <si>
     <t>Lindamax Plus 10gm Gel</t>
   </si>
   <si>
-    <t>Lindamax 25ml Lotion</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -265,18 +265,18 @@
     <t>Naprox 500mg Tablet</t>
   </si>
   <si>
+    <t>Ontin 60ml Syrup</t>
+  </si>
+  <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
-    <t>Ontin 60ml Syrup</t>
+    <t>Oradin 60ml Suspension</t>
   </si>
   <si>
     <t>Oradin 10mg Tablet</t>
   </si>
   <si>
-    <t>Oradin 60ml Suspension</t>
-  </si>
-  <si>
     <t>Oradin FT 10mg Tablet</t>
   </si>
   <si>
@@ -289,9 +289,15 @@
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox 100ml IV Infusion</t>
+  </si>
+  <si>
     <t>Quinox 750mg Tablet</t>
   </si>
   <si>
+    <t>Quinox DS 60ml Pellets for Suspension</t>
+  </si>
+  <si>
     <t>Quinox 500mg Tablet - 20's</t>
   </si>
   <si>
@@ -301,45 +307,36 @@
     <t>Quinox 500mg Tablet (40's)</t>
   </si>
   <si>
-    <t>Quinox 100ml IV Infusion</t>
-  </si>
-  <si>
-    <t>Quinox DS 60ml Pellets for Suspension</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
     <t>Sk-Mox 15ml P/D</t>
   </si>
   <si>
+    <t>Sk-Mox 500mg Capsule 50's</t>
+  </si>
+  <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
     <t>Sk-Mox 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule 50's</t>
+    <t>Stiba 30ml Syrup</t>
   </si>
   <si>
     <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Stiba 30ml Syrup</t>
+    <t>Sulidac 200 Tablet 20's</t>
   </si>
   <si>
     <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
-    <t>Sulidac 200 Tablet 20's</t>
-  </si>
-  <si>
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
@@ -370,21 +367,21 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 20ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 50ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 35ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet - 12's</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 12's</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 20ml Powder for Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 35ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 50ml Powder for Suspension</t>
-  </si>
-  <si>
     <t>18's</t>
   </si>
   <si>
@@ -412,12 +409,12 @@
     <t>100 ml</t>
   </si>
   <si>
+    <t>50's</t>
+  </si>
+  <si>
     <t>30's</t>
   </si>
   <si>
-    <t>50's</t>
-  </si>
-  <si>
     <t>30 's</t>
   </si>
   <si>
@@ -427,12 +424,12 @@
     <t>1 's</t>
   </si>
   <si>
+    <t>10 's</t>
+  </si>
+  <si>
     <t>20 's</t>
   </si>
   <si>
-    <t>10 's</t>
-  </si>
-  <si>
     <t>10gm</t>
   </si>
   <si>
@@ -457,9 +454,6 @@
     <t>15 ml</t>
   </si>
   <si>
-    <t>48 's</t>
-  </si>
-  <si>
     <t>30ml</t>
   </si>
   <si>
@@ -478,16 +472,16 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>20ml</t>
+  </si>
+  <si>
+    <t>50ml</t>
+  </si>
+  <si>
+    <t>35ml</t>
+  </si>
+  <si>
     <t>12 's</t>
-  </si>
-  <si>
-    <t>20ml</t>
-  </si>
-  <si>
-    <t>35ml</t>
-  </si>
-  <si>
-    <t>50ml</t>
   </si>
 </sst>
 </file>
@@ -845,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -903,19 +897,19 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G2">
         <v>269.87</v>
       </c>
       <c r="H2">
-        <v>21319.73</v>
+        <v>24558.17</v>
       </c>
       <c r="I2">
-        <v>21319.73</v>
+        <v>24558.17</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -935,19 +929,19 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3">
-        <v>437</v>
+        <v>351</v>
       </c>
       <c r="G3">
         <v>337.33</v>
       </c>
       <c r="H3">
-        <v>147413.21</v>
+        <v>118402.83</v>
       </c>
       <c r="I3">
-        <v>147413.21</v>
+        <v>118402.83</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -967,19 +961,19 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4">
-        <v>654</v>
+        <v>338</v>
       </c>
       <c r="G4">
         <v>206.15</v>
       </c>
       <c r="H4">
-        <v>134822.1</v>
+        <v>69678.7</v>
       </c>
       <c r="I4">
-        <v>134822.1</v>
+        <v>69678.7</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1002,16 +996,16 @@
         <v>124</v>
       </c>
       <c r="F5">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="G5">
-        <v>131.18</v>
+        <v>269.87</v>
       </c>
       <c r="H5">
-        <v>38042.2</v>
+        <v>20240.25</v>
       </c>
       <c r="I5">
-        <v>38042.2</v>
+        <v>20240.25</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1031,19 +1025,19 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F6">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="G6">
-        <v>269.87</v>
+        <v>131.18</v>
       </c>
       <c r="H6">
-        <v>31574.79</v>
+        <v>27941.34</v>
       </c>
       <c r="I6">
-        <v>31574.79</v>
+        <v>27941.34</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1063,19 +1057,19 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7">
-        <v>2236</v>
+        <v>1800</v>
       </c>
       <c r="G7">
         <v>224.89</v>
       </c>
       <c r="H7">
-        <v>502854.04</v>
+        <v>404802</v>
       </c>
       <c r="I7">
-        <v>502854.04</v>
+        <v>404802</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1095,19 +1089,19 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>239.88</v>
       </c>
       <c r="H8">
-        <v>1439.28</v>
+        <v>1679.16</v>
       </c>
       <c r="I8">
-        <v>1439.28</v>
+        <v>1679.16</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1127,19 +1121,19 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>112.45</v>
       </c>
       <c r="H9">
-        <v>3710.85</v>
+        <v>899.6</v>
       </c>
       <c r="I9">
-        <v>3710.85</v>
+        <v>899.6</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1159,19 +1153,19 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10">
-        <v>141</v>
+        <v>606</v>
       </c>
       <c r="G10">
-        <v>104.95</v>
+        <v>239.88</v>
       </c>
       <c r="H10">
-        <v>14797.95</v>
+        <v>145367.28</v>
       </c>
       <c r="I10">
-        <v>14797.95</v>
+        <v>145367.28</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1191,19 +1185,19 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11">
-        <v>2109</v>
+        <v>1562</v>
       </c>
       <c r="G11">
         <v>35.98</v>
       </c>
       <c r="H11">
-        <v>75881.82000000001</v>
+        <v>56200.76</v>
       </c>
       <c r="I11">
-        <v>75881.82000000001</v>
+        <v>56200.76</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1223,19 +1217,19 @@
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="G12">
-        <v>299.85</v>
+        <v>104.95</v>
       </c>
       <c r="H12">
-        <v>32083.95</v>
+        <v>8710.85</v>
       </c>
       <c r="I12">
-        <v>32083.95</v>
+        <v>8710.85</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1255,19 +1249,19 @@
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13">
-        <v>731</v>
+        <v>99</v>
       </c>
       <c r="G13">
-        <v>239.88</v>
+        <v>299.85</v>
       </c>
       <c r="H13">
-        <v>175352.28</v>
+        <v>29685.15</v>
       </c>
       <c r="I13">
-        <v>175352.28</v>
+        <v>29685.15</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1287,19 +1281,19 @@
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14">
-        <v>1519</v>
+        <v>1064</v>
       </c>
       <c r="G14">
         <v>29.99</v>
       </c>
       <c r="H14">
-        <v>45554.81</v>
+        <v>31909.36</v>
       </c>
       <c r="I14">
-        <v>45554.81</v>
+        <v>31909.36</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1319,19 +1313,19 @@
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F15">
-        <v>2527</v>
+        <v>873</v>
       </c>
       <c r="G15">
-        <v>359.82</v>
+        <v>262.37</v>
       </c>
       <c r="H15">
-        <v>909265.14</v>
+        <v>229049.01</v>
       </c>
       <c r="I15">
-        <v>909265.14</v>
+        <v>229049.01</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1354,16 +1348,16 @@
         <v>132</v>
       </c>
       <c r="F16">
-        <v>2684</v>
+        <v>1911</v>
       </c>
       <c r="G16">
         <v>314.84</v>
       </c>
       <c r="H16">
-        <v>845030.5600000001</v>
+        <v>601659.24</v>
       </c>
       <c r="I16">
-        <v>845030.5600000001</v>
+        <v>601659.24</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1383,19 +1377,19 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F17">
-        <v>1098</v>
+        <v>1889</v>
       </c>
       <c r="G17">
-        <v>262.37</v>
+        <v>359.82</v>
       </c>
       <c r="H17">
-        <v>288082.26</v>
+        <v>679699.98</v>
       </c>
       <c r="I17">
-        <v>288082.26</v>
+        <v>679699.98</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1415,19 +1409,19 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F18">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="G18">
         <v>179.91</v>
       </c>
       <c r="H18">
-        <v>21769.11</v>
+        <v>14212.89</v>
       </c>
       <c r="I18">
-        <v>21769.11</v>
+        <v>14212.89</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1447,19 +1441,19 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G19">
         <v>168.67</v>
       </c>
       <c r="H19">
-        <v>11132.22</v>
+        <v>9614.190000000001</v>
       </c>
       <c r="I19">
-        <v>11132.22</v>
+        <v>9614.190000000001</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1479,22 +1473,22 @@
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F20">
-        <v>5183</v>
+        <v>254</v>
       </c>
       <c r="G20">
-        <v>45.73</v>
+        <v>432.53</v>
       </c>
       <c r="H20">
-        <v>237018.59</v>
+        <v>109862.62</v>
       </c>
       <c r="I20">
-        <v>201806.49</v>
+        <v>109862.62</v>
       </c>
       <c r="J20">
-        <v>35212.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1511,22 +1505,22 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21">
-        <v>3077</v>
+        <v>2487</v>
       </c>
       <c r="G21">
         <v>314.84</v>
       </c>
       <c r="H21">
-        <v>968762.6800000001</v>
+        <v>783007.08</v>
       </c>
       <c r="I21">
-        <v>912091.48</v>
+        <v>734836.5600000001</v>
       </c>
       <c r="J21">
-        <v>56671.2</v>
+        <v>48170.52</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1543,19 +1537,19 @@
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F22">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="G22">
-        <v>432.53</v>
+        <v>33.94</v>
       </c>
       <c r="H22">
-        <v>150952.97</v>
+        <v>11369.9</v>
       </c>
       <c r="I22">
-        <v>150952.97</v>
+        <v>11369.9</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1575,22 +1569,22 @@
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F23">
-        <v>377</v>
+        <v>4133</v>
       </c>
       <c r="G23">
-        <v>33.94</v>
+        <v>45.73</v>
       </c>
       <c r="H23">
-        <v>12795.38</v>
+        <v>189002.09</v>
       </c>
       <c r="I23">
-        <v>12795.38</v>
+        <v>162250.04</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>26752.05</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1607,19 +1601,19 @@
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24">
-        <v>1369</v>
+        <v>1134</v>
       </c>
       <c r="G24">
-        <v>37.61</v>
+        <v>22.83</v>
       </c>
       <c r="H24">
-        <v>51488.09</v>
+        <v>25889.22</v>
       </c>
       <c r="I24">
-        <v>51488.09</v>
+        <v>25889.22</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1639,19 +1633,19 @@
         <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F25">
-        <v>1678</v>
+        <v>159</v>
       </c>
       <c r="G25">
-        <v>22.83</v>
+        <v>224.89</v>
       </c>
       <c r="H25">
-        <v>38308.74</v>
+        <v>35757.51</v>
       </c>
       <c r="I25">
-        <v>38308.74</v>
+        <v>35757.51</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1671,19 +1665,19 @@
         <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F26">
-        <v>164</v>
+        <v>391</v>
       </c>
       <c r="G26">
-        <v>224.89</v>
+        <v>37.61</v>
       </c>
       <c r="H26">
-        <v>36881.96</v>
+        <v>14705.51</v>
       </c>
       <c r="I26">
-        <v>36881.96</v>
+        <v>14705.51</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1703,19 +1697,19 @@
         <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F27">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>224.89</v>
+        <v>149.93</v>
       </c>
       <c r="H27">
-        <v>11919.17</v>
+        <v>299.86</v>
       </c>
       <c r="I27">
-        <v>11919.17</v>
+        <v>299.86</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1735,19 +1729,19 @@
         <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="G28">
-        <v>149.93</v>
+        <v>224.89</v>
       </c>
       <c r="H28">
-        <v>599.72</v>
+        <v>11919.17</v>
       </c>
       <c r="I28">
-        <v>599.72</v>
+        <v>11919.17</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1770,16 +1764,16 @@
         <v>132</v>
       </c>
       <c r="F29">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="G29">
-        <v>179.91</v>
+        <v>337.33</v>
       </c>
       <c r="H29">
-        <v>1979.01</v>
+        <v>17878.49</v>
       </c>
       <c r="I29">
-        <v>1979.01</v>
+        <v>17878.49</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1802,16 +1796,16 @@
         <v>132</v>
       </c>
       <c r="F30">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>337.33</v>
+        <v>179.91</v>
       </c>
       <c r="H30">
-        <v>24962.42</v>
+        <v>1079.46</v>
       </c>
       <c r="I30">
-        <v>24962.42</v>
+        <v>1079.46</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1831,19 +1825,19 @@
         <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F31">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="G31">
-        <v>89.95999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="H31">
-        <v>6027.32</v>
+        <v>3373.2</v>
       </c>
       <c r="I31">
-        <v>6027.32</v>
+        <v>3373.2</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1863,19 +1857,19 @@
         <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F32">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G32">
-        <v>93.7</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="H32">
-        <v>4591.3</v>
+        <v>5397.6</v>
       </c>
       <c r="I32">
-        <v>4591.3</v>
+        <v>5397.6</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1895,19 +1889,19 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F33">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G33">
         <v>449.78</v>
       </c>
       <c r="H33">
-        <v>10344.94</v>
+        <v>5397.36</v>
       </c>
       <c r="I33">
-        <v>10344.94</v>
+        <v>5397.36</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1927,19 +1921,19 @@
         <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F34">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="G34">
         <v>395.8</v>
       </c>
       <c r="H34">
-        <v>54224.6</v>
+        <v>47100.2</v>
       </c>
       <c r="I34">
-        <v>54224.6</v>
+        <v>47100.2</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1962,16 +1956,16 @@
         <v>132</v>
       </c>
       <c r="F35">
-        <v>935</v>
+        <v>823</v>
       </c>
       <c r="G35">
         <v>337.33</v>
       </c>
       <c r="H35">
-        <v>315403.55</v>
+        <v>277622.59</v>
       </c>
       <c r="I35">
-        <v>315403.55</v>
+        <v>277622.59</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1991,19 +1985,19 @@
         <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F36">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G36">
         <v>52.47</v>
       </c>
       <c r="H36">
-        <v>2780.91</v>
+        <v>3253.14</v>
       </c>
       <c r="I36">
-        <v>2780.91</v>
+        <v>3253.14</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2023,19 +2017,19 @@
         <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37">
-        <v>420</v>
+        <v>259</v>
       </c>
       <c r="G37">
         <v>52.47</v>
       </c>
       <c r="H37">
-        <v>22037.4</v>
+        <v>13589.73</v>
       </c>
       <c r="I37">
-        <v>22037.4</v>
+        <v>13589.73</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2055,19 +2049,19 @@
         <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F38">
-        <v>267</v>
+        <v>202</v>
       </c>
       <c r="G38">
         <v>262.37</v>
       </c>
       <c r="H38">
-        <v>70052.78999999999</v>
+        <v>52998.74</v>
       </c>
       <c r="I38">
-        <v>70052.78999999999</v>
+        <v>52998.74</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2087,19 +2081,19 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F39">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="G39">
         <v>247.38</v>
       </c>
       <c r="H39">
-        <v>83119.67999999999</v>
+        <v>65803.08</v>
       </c>
       <c r="I39">
-        <v>83119.67999999999</v>
+        <v>65803.08</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2119,19 +2113,19 @@
         <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F40">
-        <v>732</v>
+        <v>610</v>
       </c>
       <c r="G40">
         <v>350.82</v>
       </c>
       <c r="H40">
-        <v>256800.24</v>
+        <v>214000.2</v>
       </c>
       <c r="I40">
-        <v>256800.24</v>
+        <v>214000.2</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2151,19 +2145,19 @@
         <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F41">
-        <v>650</v>
+        <v>543</v>
       </c>
       <c r="G41">
         <v>412.3</v>
       </c>
       <c r="H41">
-        <v>267995</v>
+        <v>223878.9</v>
       </c>
       <c r="I41">
-        <v>267995</v>
+        <v>223878.9</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2183,19 +2177,19 @@
         <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F42">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="G42">
-        <v>224.89</v>
+        <v>22.49</v>
       </c>
       <c r="H42">
-        <v>8096.04</v>
+        <v>5217.68</v>
       </c>
       <c r="I42">
-        <v>8096.04</v>
+        <v>5217.68</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2215,19 +2209,19 @@
         <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F43">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="G43">
-        <v>22.49</v>
+        <v>224.89</v>
       </c>
       <c r="H43">
-        <v>7759.05</v>
+        <v>4722.69</v>
       </c>
       <c r="I43">
-        <v>7759.05</v>
+        <v>4722.69</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2247,22 +2241,22 @@
         <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F44">
-        <v>1296</v>
+        <v>1699</v>
       </c>
       <c r="G44">
-        <v>299.85</v>
+        <v>22.49</v>
       </c>
       <c r="H44">
-        <v>388605.6</v>
+        <v>38210.51</v>
       </c>
       <c r="I44">
-        <v>388605.6</v>
+        <v>38120.55</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>89.95999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2279,22 +2273,22 @@
         <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F45">
-        <v>1731</v>
+        <v>985</v>
       </c>
       <c r="G45">
-        <v>22.49</v>
+        <v>299.85</v>
       </c>
       <c r="H45">
-        <v>38930.19</v>
+        <v>295352.25</v>
       </c>
       <c r="I45">
-        <v>38660.31</v>
+        <v>295352.25</v>
       </c>
       <c r="J45">
-        <v>269.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2311,19 +2305,19 @@
         <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F46">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>119.94</v>
       </c>
       <c r="H46">
-        <v>7076.46</v>
+        <v>4077.96</v>
       </c>
       <c r="I46">
-        <v>7076.46</v>
+        <v>4077.96</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2346,16 +2340,16 @@
         <v>132</v>
       </c>
       <c r="F47">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G47">
         <v>269.87</v>
       </c>
       <c r="H47">
-        <v>11334.54</v>
+        <v>6476.88</v>
       </c>
       <c r="I47">
-        <v>11334.54</v>
+        <v>6476.88</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2378,16 +2372,16 @@
         <v>132</v>
       </c>
       <c r="F48">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="G48">
         <v>269.87</v>
       </c>
       <c r="H48">
-        <v>84739.17999999999</v>
+        <v>75293.73</v>
       </c>
       <c r="I48">
-        <v>84739.17999999999</v>
+        <v>75293.73</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2407,19 +2401,19 @@
         <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F49">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="G49">
         <v>299.85</v>
       </c>
       <c r="H49">
-        <v>35082.45</v>
+        <v>24287.85</v>
       </c>
       <c r="I49">
-        <v>35082.45</v>
+        <v>24287.85</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2439,19 +2433,19 @@
         <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G50">
-        <v>134.93</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H50">
-        <v>944.51</v>
+        <v>374.8</v>
       </c>
       <c r="I50">
-        <v>944.51</v>
+        <v>374.8</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2471,22 +2465,22 @@
         <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F51">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>224.89</v>
+        <v>134.93</v>
       </c>
       <c r="H51">
-        <v>2024.01</v>
+        <v>674.65</v>
       </c>
       <c r="I51">
-        <v>224.89</v>
+        <v>674.65</v>
       </c>
       <c r="J51">
-        <v>1799.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2503,22 +2497,22 @@
         <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F52">
-        <v>7</v>
+        <v>1336</v>
       </c>
       <c r="G52">
-        <v>191.15</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H52">
-        <v>1338.05</v>
+        <v>100146.56</v>
       </c>
       <c r="I52">
-        <v>1338.05</v>
+        <v>89502.24000000001</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>10644.32</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2535,22 +2529,22 @@
         <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F53">
-        <v>226</v>
+        <v>5</v>
       </c>
       <c r="G53">
-        <v>449.78</v>
+        <v>224.89</v>
       </c>
       <c r="H53">
-        <v>101650.28</v>
+        <v>1124.45</v>
       </c>
       <c r="I53">
-        <v>94903.58</v>
+        <v>224.89</v>
       </c>
       <c r="J53">
-        <v>6746.7</v>
+        <v>899.5599999999999</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2567,19 +2561,19 @@
         <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G54">
-        <v>74.95999999999999</v>
+        <v>191.15</v>
       </c>
       <c r="H54">
-        <v>224.88</v>
+        <v>2102.65</v>
       </c>
       <c r="I54">
-        <v>224.88</v>
+        <v>2102.65</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2599,22 +2593,22 @@
         <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F55">
-        <v>1567</v>
+        <v>214</v>
       </c>
       <c r="G55">
-        <v>74.95999999999999</v>
+        <v>449.78</v>
       </c>
       <c r="H55">
-        <v>117462.32</v>
+        <v>96252.92</v>
       </c>
       <c r="I55">
-        <v>105093.92</v>
+        <v>88156.88</v>
       </c>
       <c r="J55">
-        <v>12368.4</v>
+        <v>8096.04</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2634,16 +2628,16 @@
         <v>132</v>
       </c>
       <c r="F56">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="G56">
         <v>224.89</v>
       </c>
       <c r="H56">
-        <v>30360.15</v>
+        <v>22264.11</v>
       </c>
       <c r="I56">
-        <v>30360.15</v>
+        <v>22264.11</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2663,19 +2657,19 @@
         <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F57">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G57">
         <v>22.64</v>
       </c>
       <c r="H57">
-        <v>3033.76</v>
+        <v>2694.16</v>
       </c>
       <c r="I57">
-        <v>3033.76</v>
+        <v>2694.16</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2698,16 +2692,16 @@
         <v>131</v>
       </c>
       <c r="F58">
-        <v>1050</v>
+        <v>813</v>
       </c>
       <c r="G58">
-        <v>35.68</v>
+        <v>228.26</v>
       </c>
       <c r="H58">
-        <v>37464</v>
+        <v>185575.38</v>
       </c>
       <c r="I58">
-        <v>37464</v>
+        <v>185575.38</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2727,19 +2721,19 @@
         <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F59">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G59">
         <v>51.12</v>
       </c>
       <c r="H59">
-        <v>3936.24</v>
+        <v>3425.04</v>
       </c>
       <c r="I59">
-        <v>3936.24</v>
+        <v>3425.04</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2759,19 +2753,19 @@
         <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F60">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G60">
         <v>266.12</v>
       </c>
       <c r="H60">
-        <v>14370.48</v>
+        <v>10910.92</v>
       </c>
       <c r="I60">
-        <v>14370.48</v>
+        <v>10910.92</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2791,19 +2785,19 @@
         <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>1145</v>
       </c>
       <c r="G61">
-        <v>219.13</v>
+        <v>35.68</v>
       </c>
       <c r="H61">
-        <v>438.26</v>
+        <v>40853.6</v>
       </c>
       <c r="I61">
-        <v>438.26</v>
+        <v>40853.6</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2811,10 +2805,10 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -2823,19 +2817,19 @@
         <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="F62">
-        <v>1370</v>
+        <v>17</v>
       </c>
       <c r="G62">
-        <v>228.26</v>
+        <v>44.98</v>
       </c>
       <c r="H62">
-        <v>312716.2</v>
+        <v>764.66</v>
       </c>
       <c r="I62">
-        <v>312716.2</v>
+        <v>764.66</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2858,16 +2852,16 @@
         <v>132</v>
       </c>
       <c r="F63">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="G63">
         <v>179.91</v>
       </c>
       <c r="H63">
-        <v>35982</v>
+        <v>24467.76</v>
       </c>
       <c r="I63">
-        <v>35982</v>
+        <v>24467.76</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2875,10 +2869,10 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -2887,19 +2881,19 @@
         <v>105</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F64">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="G64">
-        <v>44.98</v>
+        <v>142.43</v>
       </c>
       <c r="H64">
-        <v>629.72</v>
+        <v>30622.45</v>
       </c>
       <c r="I64">
-        <v>629.72</v>
+        <v>30622.45</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2919,19 +2913,19 @@
         <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F65">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="G65">
         <v>187.41</v>
       </c>
       <c r="H65">
-        <v>9745.32</v>
+        <v>14430.57</v>
       </c>
       <c r="I65">
-        <v>9745.32</v>
+        <v>14430.57</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2939,10 +2933,10 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -2951,19 +2945,19 @@
         <v>107</v>
       </c>
       <c r="E66" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F66">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="G66">
-        <v>142.43</v>
+        <v>179.91</v>
       </c>
       <c r="H66">
-        <v>34040.77</v>
+        <v>11154.42</v>
       </c>
       <c r="I66">
-        <v>34040.77</v>
+        <v>11154.42</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2971,10 +2965,10 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -2983,19 +2977,19 @@
         <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F67">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="G67">
-        <v>179.91</v>
+        <v>56.22</v>
       </c>
       <c r="H67">
-        <v>15652.17</v>
+        <v>6015.54</v>
       </c>
       <c r="I67">
-        <v>15652.17</v>
+        <v>6015.54</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3015,19 +3009,19 @@
         <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="F68">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="G68">
-        <v>56.22</v>
+        <v>149.93</v>
       </c>
       <c r="H68">
-        <v>4385.16</v>
+        <v>36432.99</v>
       </c>
       <c r="I68">
-        <v>4385.16</v>
+        <v>36432.99</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3035,10 +3029,10 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -3047,19 +3041,19 @@
         <v>110</v>
       </c>
       <c r="E69" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F69">
-        <v>420</v>
+        <v>286</v>
       </c>
       <c r="G69">
-        <v>149.93</v>
+        <v>359.82</v>
       </c>
       <c r="H69">
-        <v>62970.6</v>
+        <v>102908.52</v>
       </c>
       <c r="I69">
-        <v>62970.6</v>
+        <v>102908.52</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3067,10 +3061,10 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -3079,19 +3073,19 @@
         <v>111</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F70">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="G70">
-        <v>359.82</v>
+        <v>134.93</v>
       </c>
       <c r="H70">
-        <v>88875.53999999999</v>
+        <v>3643.11</v>
       </c>
       <c r="I70">
-        <v>88875.53999999999</v>
+        <v>3643.11</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -3099,10 +3093,10 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -3111,22 +3105,22 @@
         <v>112</v>
       </c>
       <c r="E71" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F71">
-        <v>45</v>
+        <v>1620</v>
       </c>
       <c r="G71">
-        <v>134.93</v>
+        <v>41.23</v>
       </c>
       <c r="H71">
-        <v>6071.85</v>
+        <v>66792.60000000001</v>
       </c>
       <c r="I71">
-        <v>6071.85</v>
+        <v>61185.32</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>5607.28</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3143,30 +3137,30 @@
         <v>113</v>
       </c>
       <c r="E72" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F72">
-        <v>2771</v>
+        <v>92</v>
       </c>
       <c r="G72">
-        <v>41.23</v>
+        <v>187.41</v>
       </c>
       <c r="H72">
-        <v>114248.33</v>
+        <v>17241.72</v>
       </c>
       <c r="I72">
-        <v>104641.74</v>
+        <v>17241.72</v>
       </c>
       <c r="J72">
-        <v>9606.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -3175,19 +3169,19 @@
         <v>114</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F73">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="G73">
-        <v>187.41</v>
+        <v>299.85</v>
       </c>
       <c r="H73">
-        <v>34483.44</v>
+        <v>29685.15</v>
       </c>
       <c r="I73">
-        <v>34483.44</v>
+        <v>29685.15</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -3195,10 +3189,10 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -3207,19 +3201,19 @@
         <v>115</v>
       </c>
       <c r="E74" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F74">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="G74">
-        <v>299.85</v>
+        <v>134.93</v>
       </c>
       <c r="H74">
-        <v>40479.75</v>
+        <v>809.58</v>
       </c>
       <c r="I74">
-        <v>40479.75</v>
+        <v>809.58</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3227,10 +3221,10 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -3242,16 +3236,16 @@
         <v>151</v>
       </c>
       <c r="F75">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="G75">
-        <v>134.93</v>
+        <v>29.99</v>
       </c>
       <c r="H75">
-        <v>2023.95</v>
+        <v>3628.79</v>
       </c>
       <c r="I75">
-        <v>2023.95</v>
+        <v>3628.79</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3259,10 +3253,10 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -3271,22 +3265,22 @@
         <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F76">
-        <v>154</v>
+        <v>708</v>
       </c>
       <c r="G76">
-        <v>29.99</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="H76">
-        <v>4618.46</v>
+        <v>50416.68</v>
       </c>
       <c r="I76">
-        <v>4618.46</v>
+        <v>47853.12</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>2563.56</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3303,19 +3297,19 @@
         <v>118</v>
       </c>
       <c r="E77" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="F77">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="G77">
-        <v>224.89</v>
+        <v>143.93</v>
       </c>
       <c r="H77">
-        <v>53748.71</v>
+        <v>23028.8</v>
       </c>
       <c r="I77">
-        <v>53748.71</v>
+        <v>23028.8</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -3338,19 +3332,19 @@
         <v>154</v>
       </c>
       <c r="F78">
-        <v>1662</v>
+        <v>1253</v>
       </c>
       <c r="G78">
-        <v>314.84</v>
+        <v>104.95</v>
       </c>
       <c r="H78">
-        <v>523264.08</v>
+        <v>131502.35</v>
       </c>
       <c r="I78">
-        <v>499021.4</v>
+        <v>126464.75</v>
       </c>
       <c r="J78">
-        <v>24242.68</v>
+        <v>5037.6</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3370,19 +3364,19 @@
         <v>155</v>
       </c>
       <c r="F79">
-        <v>599</v>
+        <v>1396</v>
       </c>
       <c r="G79">
-        <v>71.20999999999999</v>
+        <v>314.84</v>
       </c>
       <c r="H79">
-        <v>42654.79</v>
+        <v>439516.64</v>
       </c>
       <c r="I79">
-        <v>40874.54</v>
+        <v>419052.04</v>
       </c>
       <c r="J79">
-        <v>1780.25</v>
+        <v>20464.6</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3399,53 +3393,21 @@
         <v>121</v>
       </c>
       <c r="E80" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="F80">
-        <v>1657</v>
+        <v>157</v>
       </c>
       <c r="G80">
-        <v>104.95</v>
+        <v>224.89</v>
       </c>
       <c r="H80">
-        <v>173902.15</v>
+        <v>35307.73</v>
       </c>
       <c r="I80">
-        <v>167185.35</v>
+        <v>35307.73</v>
       </c>
       <c r="J80">
-        <v>6716.8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81">
-        <v>35</v>
-      </c>
-      <c r="B81" t="s">
-        <v>42</v>
-      </c>
-      <c r="C81">
-        <v>80</v>
-      </c>
-      <c r="D81" t="s">
-        <v>122</v>
-      </c>
-      <c r="E81" t="s">
-        <v>157</v>
-      </c>
-      <c r="F81">
-        <v>132</v>
-      </c>
-      <c r="G81">
-        <v>143.93</v>
-      </c>
-      <c r="H81">
-        <v>18998.76</v>
-      </c>
-      <c r="I81">
-        <v>18998.76</v>
-      </c>
-      <c r="J81">
         <v>0</v>
       </c>
     </row>

--- a/Data/item_wise_yesterday_sales_copy.xlsx
+++ b/Data/item_wise_yesterday_sales_copy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="109">
   <si>
     <t>BSL NO</t>
   </si>
@@ -46,6 +46,21 @@
     <t>TP</t>
   </si>
   <si>
+    <t>TP Sales Value</t>
+  </si>
+  <si>
+    <t>Net Sales Value</t>
+  </si>
+  <si>
+    <t>Net Sakes %</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>LD Target Qty/Day</t>
+  </si>
+  <si>
     <t>Cortider</t>
   </si>
   <si>
@@ -112,54 +127,54 @@
     <t>Cortider 10gm Cream</t>
   </si>
   <si>
+    <t>Esoral Mups 40 Tablet</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Esoral 40mg IV Injection</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 100's</t>
+  </si>
+  <si>
     <t>Esoral 40mg Capsule - 30's</t>
   </si>
   <si>
+    <t>Esoral 20mg Tablet 112's</t>
+  </si>
+  <si>
     <t>Esoral MUPS 20mg Tab 50s</t>
   </si>
   <si>
-    <t>Esoral Mups 40 Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 100's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg IV Injection</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet 112's</t>
-  </si>
-  <si>
     <t>Etriam 10gm Cream</t>
   </si>
   <si>
+    <t>Facid 10gm BT Cream</t>
+  </si>
+  <si>
+    <t>Facid 15gm Cream</t>
+  </si>
+  <si>
+    <t>Facid 15gm Ointment</t>
+  </si>
+  <si>
     <t>Facid 250mg Tablet 10's</t>
   </si>
   <si>
-    <t>Facid 15gm Cream</t>
-  </si>
-  <si>
-    <t>Facid 15gm Ointment</t>
-  </si>
-  <si>
     <t>Facid HC Cream</t>
   </si>
   <si>
-    <t>Facid 10gm BT Cream</t>
+    <t>Flucoder 150mg Capsule</t>
+  </si>
+  <si>
+    <t>Flucoder 200mg Capsule - 10's</t>
   </si>
   <si>
     <t>Flucoder 35ml Dry Suspension</t>
   </si>
   <si>
-    <t>Flucoder 200mg Capsule - 10's</t>
-  </si>
-  <si>
-    <t>Flucoder 150mg Capsule</t>
-  </si>
-  <si>
     <t>Flucoder 50mg Capsule</t>
   </si>
   <si>
@@ -178,63 +193,63 @@
     <t>Losectil 40mg Powder for Oral Suspension - 30's</t>
   </si>
   <si>
+    <t>Losectil Mups 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule 120's</t>
+  </si>
+  <si>
     <t>Losectil MUPS 20mg Tablet</t>
   </si>
   <si>
+    <t>Losectil V 40mg Capsule</t>
+  </si>
+  <si>
+    <t>Losectil 40mg IV Injection</t>
+  </si>
+  <si>
+    <t>Losectil 20mg PFS 50's</t>
+  </si>
+  <si>
+    <t>Losectil V 20mg Capsule</t>
+  </si>
+  <si>
     <t>Losectil 10mg Capsule 60's</t>
   </si>
   <si>
-    <t>Losectil V 40mg Capsule</t>
-  </si>
-  <si>
-    <t>Losectil 40mg IV Injection</t>
-  </si>
-  <si>
-    <t>Losectil Mups 40mg Tablet</t>
-  </si>
-  <si>
     <t>Losectil 40mg Capsule 60's</t>
   </si>
   <si>
-    <t>Losectil V 20mg Capsule</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule 120's</t>
-  </si>
-  <si>
-    <t>Losectil 20mg PFS 50's</t>
-  </si>
-  <si>
     <t>Lulizol 20gm Cream</t>
   </si>
   <si>
     <t>Lulizol 10gm Cream</t>
   </si>
   <si>
+    <t>Mupiron 20gm Ointment</t>
+  </si>
+  <si>
     <t>Mupiron 10gm Ointment</t>
   </si>
   <si>
-    <t>Mupiron 20gm Ointment</t>
+    <t>Mycofin 250mg Tablet</t>
   </si>
   <si>
     <t>Mycofin 5gm Cream</t>
   </si>
   <si>
-    <t>Mycofin 250mg Tablet</t>
-  </si>
-  <si>
     <t>Nospot 30gm Cream</t>
   </si>
   <si>
     <t>Orogurd 15gm Oral Gel</t>
   </si>
   <si>
+    <t>Panoral 20mg Tablet</t>
+  </si>
+  <si>
     <t>Panoral 40mg Tablet</t>
   </si>
   <si>
-    <t>Panoral 20mg Tablet</t>
-  </si>
-  <si>
     <t>Perosa 30gm Cream</t>
   </si>
   <si>
@@ -250,73 +265,73 @@
     <t>Topibet CL 10gm Ointment</t>
   </si>
   <si>
+    <t>Topiclo 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo 10gm Cream</t>
+  </si>
+  <si>
+    <t>Topiclo S Ointment 1's 20g</t>
+  </si>
+  <si>
+    <t>Topiclo S 10gm Ointment</t>
+  </si>
+  <si>
     <t>Topiclo NN 15gm Ointment</t>
   </si>
   <si>
-    <t>Topiclo 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Topiclo S Ointment 1's 20g</t>
-  </si>
-  <si>
-    <t>Topiclo S 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Topiclo 10gm Cream</t>
-  </si>
-  <si>
     <t>10 gm</t>
   </si>
   <si>
     <t>30's</t>
   </si>
   <si>
+    <t>1's</t>
+  </si>
+  <si>
+    <t>100's</t>
+  </si>
+  <si>
+    <t>112's</t>
+  </si>
+  <si>
     <t>50's</t>
   </si>
   <si>
-    <t>100's</t>
-  </si>
-  <si>
-    <t>1's</t>
-  </si>
-  <si>
-    <t>112's</t>
+    <t>15gm</t>
   </si>
   <si>
     <t>10's</t>
   </si>
   <si>
-    <t>15gm</t>
+    <t>10 's</t>
   </si>
   <si>
     <t>35ml</t>
   </si>
   <si>
-    <t>10 's</t>
-  </si>
-  <si>
     <t>30 's</t>
   </si>
   <si>
+    <t>24's</t>
+  </si>
+  <si>
+    <t>120's</t>
+  </si>
+  <si>
     <t>60's</t>
   </si>
   <si>
-    <t>24's</t>
-  </si>
-  <si>
-    <t>120's</t>
-  </si>
-  <si>
     <t>10gm</t>
   </si>
   <si>
     <t>5gm</t>
   </si>
   <si>
+    <t>40 's</t>
+  </si>
+  <si>
     <t>40's</t>
-  </si>
-  <si>
-    <t>40 's</t>
   </si>
   <si>
     <t>30 gm</t>
@@ -683,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -695,7 +710,7 @@
     <col min="8" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,25 +741,40 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G2">
         <v>0.02</v>
@@ -753,350 +783,515 @@
         <v>3500</v>
       </c>
       <c r="I2">
-        <v>486</v>
+        <v>1162</v>
       </c>
       <c r="J2">
         <v>26.24</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>2597.76</v>
+      </c>
+      <c r="L2">
+        <v>2597.76</v>
+      </c>
+      <c r="M2">
+        <v>0.02</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F3">
-        <v>904</v>
+        <v>324</v>
       </c>
       <c r="G3">
-        <v>1.86</v>
+        <v>0.88</v>
       </c>
       <c r="H3">
-        <v>27000</v>
+        <v>7954</v>
       </c>
       <c r="I3">
-        <v>4833</v>
+        <v>5160</v>
       </c>
       <c r="J3">
-        <v>224.89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>314.84</v>
+      </c>
+      <c r="K3">
+        <v>102008.16</v>
+      </c>
+      <c r="L3">
+        <v>102008.16</v>
+      </c>
+      <c r="M3">
+        <v>0.88</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F4">
-        <v>2275</v>
+        <v>300</v>
       </c>
       <c r="G4">
-        <v>7.79</v>
+        <v>0.46</v>
       </c>
       <c r="H4">
-        <v>90000</v>
+        <v>10022</v>
       </c>
       <c r="I4">
-        <v>12187</v>
+        <v>4339</v>
       </c>
       <c r="J4">
-        <v>374.82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>179.91</v>
+      </c>
+      <c r="K4">
+        <v>53973</v>
+      </c>
+      <c r="L4">
+        <v>53973</v>
+      </c>
+      <c r="M4">
+        <v>0.46</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F5">
-        <v>343</v>
+        <v>3024</v>
       </c>
       <c r="G5">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
       <c r="H5">
-        <v>7954</v>
+        <v>100000</v>
       </c>
       <c r="I5">
-        <v>1905</v>
+        <v>47279</v>
       </c>
       <c r="J5">
-        <v>314.84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>38.26</v>
+      </c>
+      <c r="K5">
+        <v>115698.24</v>
+      </c>
+      <c r="L5">
+        <v>120138.16</v>
+      </c>
+      <c r="M5">
+        <v>1.03</v>
+      </c>
+      <c r="N5">
+        <v>-4439.92</v>
+      </c>
+      <c r="O5">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F6">
-        <v>1589</v>
+        <v>1527</v>
       </c>
       <c r="G6">
-        <v>7.61</v>
+        <v>6.89</v>
       </c>
       <c r="H6">
         <v>50108</v>
       </c>
       <c r="I6">
-        <v>8115</v>
+        <v>21516</v>
       </c>
       <c r="J6">
         <v>524.74</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>801277.98</v>
+      </c>
+      <c r="L6">
+        <v>801277.98</v>
+      </c>
+      <c r="M6">
+        <v>6.89</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F7">
-        <v>310</v>
+        <v>915</v>
       </c>
       <c r="G7">
-        <v>0.51</v>
+        <v>1.77</v>
       </c>
       <c r="H7">
-        <v>10022</v>
+        <v>27000</v>
       </c>
       <c r="I7">
-        <v>1765</v>
+        <v>13182</v>
       </c>
       <c r="J7">
-        <v>179.91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>224.89</v>
+      </c>
+      <c r="K7">
+        <v>205774.35</v>
+      </c>
+      <c r="L7">
+        <v>205774.35</v>
+      </c>
+      <c r="M7">
+        <v>1.77</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F8">
-        <v>4336</v>
+        <v>1648</v>
       </c>
       <c r="G8">
-        <v>1.53</v>
+        <v>5.95</v>
       </c>
       <c r="H8">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I8">
-        <v>21044</v>
+        <v>22961</v>
       </c>
       <c r="J8">
-        <v>38.26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>419.79</v>
+      </c>
+      <c r="K8">
+        <v>691813.92</v>
+      </c>
+      <c r="L8">
+        <v>691813.92</v>
+      </c>
+      <c r="M8">
+        <v>5.95</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F9">
-        <v>1696</v>
+        <v>3478</v>
       </c>
       <c r="G9">
-        <v>6.5</v>
+        <v>11.21</v>
       </c>
       <c r="H9">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="I9">
-        <v>8506</v>
+        <v>33170</v>
       </c>
       <c r="J9">
-        <v>419.79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>374.82</v>
+      </c>
+      <c r="K9">
+        <v>1303623.96</v>
+      </c>
+      <c r="L9">
+        <v>1303623.96</v>
+      </c>
+      <c r="M9">
+        <v>11.21</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F10">
-        <v>3499</v>
+        <v>2829</v>
       </c>
       <c r="G10">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="H10">
         <v>100000</v>
       </c>
       <c r="I10">
-        <v>16296</v>
+        <v>40726</v>
       </c>
       <c r="J10">
         <v>29.99</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>84841.71000000001</v>
+      </c>
+      <c r="L10">
+        <v>77464.17</v>
+      </c>
+      <c r="M10">
+        <v>0.67</v>
+      </c>
+      <c r="N10">
+        <v>7377.54</v>
+      </c>
+      <c r="O10">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11">
-        <v>352</v>
+        <v>750</v>
       </c>
       <c r="G11">
-        <v>1.57</v>
+        <v>0.82</v>
       </c>
       <c r="H11">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="I11">
-        <v>1469</v>
+        <v>10840</v>
       </c>
       <c r="J11">
-        <v>487.26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>127.44</v>
+      </c>
+      <c r="K11">
+        <v>95580</v>
+      </c>
+      <c r="L11">
+        <v>95580</v>
+      </c>
+      <c r="M11">
+        <v>0.82</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F12">
-        <v>620</v>
+        <v>459</v>
       </c>
       <c r="G12">
-        <v>0.38</v>
+        <v>0.27</v>
       </c>
       <c r="H12">
         <v>17000</v>
       </c>
       <c r="I12">
-        <v>2980</v>
+        <v>8225</v>
       </c>
       <c r="J12">
         <v>67.47</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>30968.73</v>
+      </c>
+      <c r="L12">
+        <v>30968.73</v>
+      </c>
+      <c r="M12">
+        <v>0.27</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F13">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G13">
         <v>0.08</v>
@@ -1105,254 +1300,374 @@
         <v>3500</v>
       </c>
       <c r="I13">
-        <v>649</v>
+        <v>1713</v>
       </c>
       <c r="J13">
         <v>67.47</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>9175.92</v>
+      </c>
+      <c r="L13">
+        <v>9175.92</v>
+      </c>
+      <c r="M13">
+        <v>0.08</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F14">
-        <v>933</v>
+        <v>308</v>
       </c>
       <c r="G14">
-        <v>0.8</v>
+        <v>1.29</v>
       </c>
       <c r="H14">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="I14">
-        <v>4010</v>
+        <v>4187</v>
       </c>
       <c r="J14">
-        <v>93.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>487.26</v>
+      </c>
+      <c r="K14">
+        <v>150076.08</v>
+      </c>
+      <c r="L14">
+        <v>150076.08</v>
+      </c>
+      <c r="M14">
+        <v>1.29</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F15">
-        <v>854</v>
+        <v>720</v>
       </c>
       <c r="G15">
-        <v>0.99</v>
+        <v>0.58</v>
       </c>
       <c r="H15">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="I15">
-        <v>4060</v>
+        <v>10450</v>
       </c>
       <c r="J15">
-        <v>127.44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>93.7</v>
+      </c>
+      <c r="K15">
+        <v>67464</v>
+      </c>
+      <c r="L15">
+        <v>67464</v>
+      </c>
+      <c r="M15">
+        <v>0.58</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F16">
+        <v>57</v>
+      </c>
+      <c r="G16">
+        <v>0.08</v>
+      </c>
+      <c r="H16">
+        <v>1500</v>
+      </c>
+      <c r="I16">
+        <v>618</v>
+      </c>
+      <c r="J16">
+        <v>164.92</v>
+      </c>
+      <c r="K16">
+        <v>9400.440000000001</v>
+      </c>
+      <c r="L16">
+        <v>9400.440000000001</v>
+      </c>
+      <c r="M16">
+        <v>0.08</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
-      </c>
-      <c r="G16">
-        <v>0.01</v>
-      </c>
-      <c r="H16">
-        <v>3000</v>
-      </c>
-      <c r="I16">
-        <v>222</v>
-      </c>
-      <c r="J16">
-        <v>58.47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F17">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G17">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H17">
         <v>477</v>
       </c>
       <c r="I17">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="J17">
         <v>187.41</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>7683.81</v>
+      </c>
+      <c r="L17">
+        <v>7683.81</v>
+      </c>
+      <c r="M17">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F18">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="G18">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="H18">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="I18">
-        <v>219</v>
+        <v>714</v>
       </c>
       <c r="J18">
-        <v>164.92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>58.47</v>
+      </c>
+      <c r="K18">
+        <v>7133.34</v>
+      </c>
+      <c r="L18">
+        <v>7133.34</v>
+      </c>
+      <c r="M18">
+        <v>0.06</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F19">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="G19">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="H19">
         <v>4000</v>
       </c>
       <c r="I19">
-        <v>785</v>
+        <v>2014</v>
       </c>
       <c r="J19">
         <v>182.16</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>19855.44</v>
+      </c>
+      <c r="L19">
+        <v>19855.44</v>
+      </c>
+      <c r="M19">
+        <v>0.17</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F20">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="H20">
         <v>398</v>
       </c>
       <c r="I20">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="J20">
         <v>449.78</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>2248.9</v>
+      </c>
+      <c r="L20">
+        <v>2248.9</v>
+      </c>
+      <c r="M20">
+        <v>0.02</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F21">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G21">
         <v>0.19</v>
@@ -1361,1034 +1676,1529 @@
         <v>4000</v>
       </c>
       <c r="I21">
-        <v>589</v>
+        <v>1558</v>
       </c>
       <c r="J21">
         <v>202.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>22061.6</v>
+      </c>
+      <c r="L21">
+        <v>22061.6</v>
+      </c>
+      <c r="M21">
+        <v>0.19</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F22">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G22">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="H22">
         <v>716</v>
       </c>
       <c r="I22">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="J22">
         <v>157.42</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>2518.72</v>
+      </c>
+      <c r="L22">
+        <v>2518.72</v>
+      </c>
+      <c r="M22">
+        <v>0.02</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F23">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="G23">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="H23">
         <v>3181</v>
       </c>
       <c r="I23">
-        <v>446</v>
+        <v>1184</v>
       </c>
       <c r="J23">
         <v>97.45</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>3898</v>
+      </c>
+      <c r="L23">
+        <v>3898</v>
+      </c>
+      <c r="M23">
+        <v>0.03</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F24">
-        <v>327</v>
+        <v>252</v>
       </c>
       <c r="G24">
-        <v>0.67</v>
+        <v>0.49</v>
       </c>
       <c r="H24">
         <v>6000</v>
       </c>
       <c r="I24">
-        <v>1354</v>
+        <v>3743</v>
       </c>
       <c r="J24">
         <v>224.89</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>56672.28</v>
+      </c>
+      <c r="L24">
+        <v>56672.28</v>
+      </c>
+      <c r="M24">
+        <v>0.49</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F25">
-        <v>348</v>
+        <v>43</v>
       </c>
       <c r="G25">
-        <v>0.83</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H25">
-        <v>9544</v>
+        <v>1432</v>
       </c>
       <c r="I25">
-        <v>1621</v>
+        <v>585</v>
       </c>
       <c r="J25">
-        <v>262.37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>179.91</v>
+      </c>
+      <c r="K25">
+        <v>7736.13</v>
+      </c>
+      <c r="L25">
+        <v>7736.13</v>
+      </c>
+      <c r="M25">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F26">
-        <v>1044</v>
+        <v>13177</v>
       </c>
       <c r="G26">
-        <v>0.86</v>
+        <v>50.98</v>
       </c>
       <c r="H26">
-        <v>25000</v>
+        <v>370000</v>
       </c>
       <c r="I26">
-        <v>5165</v>
+        <v>168069</v>
       </c>
       <c r="J26">
-        <v>89.95999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>449.77</v>
+      </c>
+      <c r="K26">
+        <v>5926619.29</v>
+      </c>
+      <c r="L26">
+        <v>5926619.29</v>
+      </c>
+      <c r="M26">
+        <v>50.98</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>11218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F27">
-        <v>55</v>
+        <v>304</v>
       </c>
       <c r="G27">
-        <v>0.18</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H27">
-        <v>1559</v>
+        <v>9544</v>
       </c>
       <c r="I27">
-        <v>274</v>
+        <v>4179</v>
       </c>
       <c r="J27">
-        <v>359.82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>262.37</v>
+      </c>
+      <c r="K27">
+        <v>79760.48</v>
+      </c>
+      <c r="L27">
+        <v>79760.48</v>
+      </c>
+      <c r="M27">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28">
         <v>57</v>
       </c>
-      <c r="E28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28">
-        <v>1125</v>
-      </c>
       <c r="G28">
-        <v>0.41</v>
+        <v>0.18</v>
       </c>
       <c r="H28">
-        <v>25849</v>
+        <v>1559</v>
       </c>
       <c r="I28">
-        <v>7848</v>
+        <v>778</v>
       </c>
       <c r="J28">
-        <v>38.26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>359.82</v>
+      </c>
+      <c r="K28">
+        <v>20509.74</v>
+      </c>
+      <c r="L28">
+        <v>20509.74</v>
+      </c>
+      <c r="M28">
+        <v>0.18</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F29">
-        <v>46</v>
+        <v>858</v>
       </c>
       <c r="G29">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="H29">
-        <v>1432</v>
+        <v>25849</v>
       </c>
       <c r="I29">
-        <v>240</v>
+        <v>16934</v>
       </c>
       <c r="J29">
-        <v>179.91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>38.26</v>
+      </c>
+      <c r="K29">
+        <v>32827.08</v>
+      </c>
+      <c r="L29">
+        <v>34696.52</v>
+      </c>
+      <c r="M29">
+        <v>0.3</v>
+      </c>
+      <c r="N29">
+        <v>-1869.44</v>
+      </c>
+      <c r="O29">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F30">
-        <v>574</v>
+        <v>1313</v>
       </c>
       <c r="G30">
-        <v>2.12</v>
+        <v>2.54</v>
       </c>
       <c r="H30">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="I30">
-        <v>2804</v>
+        <v>19850</v>
       </c>
       <c r="J30">
-        <v>404.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>224.89</v>
+      </c>
+      <c r="K30">
+        <v>295280.57</v>
+      </c>
+      <c r="L30">
+        <v>295280.57</v>
+      </c>
+      <c r="M30">
+        <v>2.54</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F31">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="G31">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H31">
         <v>18134</v>
       </c>
       <c r="I31">
-        <v>2656</v>
+        <v>7313</v>
       </c>
       <c r="J31">
         <v>374.81</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>194151.58</v>
+      </c>
+      <c r="L31">
+        <v>194151.58</v>
+      </c>
+      <c r="M31">
+        <v>1.67</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32">
+        <v>977</v>
+      </c>
+      <c r="G32">
+        <v>0.76</v>
+      </c>
+      <c r="H32">
+        <v>25000</v>
+      </c>
+      <c r="I32">
+        <v>13199</v>
+      </c>
+      <c r="J32">
+        <v>89.95999999999999</v>
+      </c>
+      <c r="K32">
+        <v>87890.92</v>
+      </c>
+      <c r="L32">
+        <v>87890.92</v>
+      </c>
+      <c r="M32">
+        <v>0.76</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33">
         <v>96</v>
       </c>
-      <c r="F32">
-        <v>11668</v>
-      </c>
-      <c r="G32">
-        <v>47.91</v>
-      </c>
-      <c r="H32">
-        <v>370000</v>
-      </c>
-      <c r="I32">
-        <v>54308</v>
-      </c>
-      <c r="J32">
-        <v>449.77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33">
-        <v>9</v>
-      </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F33">
-        <v>1612</v>
+        <v>519</v>
       </c>
       <c r="G33">
-        <v>3.31</v>
+        <v>1.81</v>
       </c>
       <c r="H33">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="I33">
-        <v>7924</v>
+        <v>7365</v>
       </c>
       <c r="J33">
-        <v>224.89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>404.8</v>
+      </c>
+      <c r="K33">
+        <v>210091.2</v>
+      </c>
+      <c r="L33">
+        <v>210091.2</v>
+      </c>
+      <c r="M33">
+        <v>1.81</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F34">
-        <v>1052</v>
+        <v>514</v>
       </c>
       <c r="G34">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H34">
         <v>20000</v>
       </c>
       <c r="I34">
-        <v>5609</v>
+        <v>12774</v>
       </c>
       <c r="J34">
         <v>134.93</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>69354.02</v>
+      </c>
+      <c r="L34">
+        <v>69354.02</v>
+      </c>
+      <c r="M34">
+        <v>0.6</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F35">
-        <v>3535</v>
+        <v>3785</v>
       </c>
       <c r="G35">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H35">
         <v>100000</v>
       </c>
       <c r="I35">
-        <v>16718</v>
+        <v>48143</v>
       </c>
       <c r="J35">
         <v>74.95999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>283723.6</v>
+      </c>
+      <c r="L35">
+        <v>283723.6</v>
+      </c>
+      <c r="M35">
+        <v>2.44</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F36">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="G36">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="H36">
-        <v>5727</v>
+        <v>300</v>
       </c>
       <c r="I36">
-        <v>1231</v>
+        <v>195</v>
       </c>
       <c r="J36">
-        <v>104.95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>164.92</v>
+      </c>
+      <c r="K36">
+        <v>1319.36</v>
+      </c>
+      <c r="L36">
+        <v>1319.36</v>
+      </c>
+      <c r="M36">
+        <v>0.01</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F37">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="G37">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="H37">
-        <v>300</v>
+        <v>5727</v>
       </c>
       <c r="I37">
-        <v>83</v>
+        <v>2845</v>
       </c>
       <c r="J37">
-        <v>164.92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>104.95</v>
+      </c>
+      <c r="K37">
+        <v>19835.55</v>
+      </c>
+      <c r="L37">
+        <v>19835.55</v>
+      </c>
+      <c r="M37">
+        <v>0.17</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F38">
-        <v>652</v>
+        <v>616</v>
       </c>
       <c r="G38">
-        <v>0.22</v>
+        <v>1.59</v>
       </c>
       <c r="H38">
         <v>20000</v>
       </c>
       <c r="I38">
-        <v>2620</v>
+        <v>8383</v>
       </c>
       <c r="J38">
-        <v>37.48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>299.85</v>
+      </c>
+      <c r="K38">
+        <v>184707.6</v>
+      </c>
+      <c r="L38">
+        <v>184707.6</v>
+      </c>
+      <c r="M38">
+        <v>1.59</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F39">
-        <v>572</v>
+        <v>490</v>
       </c>
       <c r="G39">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="H39">
         <v>20000</v>
       </c>
       <c r="I39">
-        <v>3071</v>
+        <v>7408</v>
       </c>
       <c r="J39">
-        <v>299.85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>37.48</v>
+      </c>
+      <c r="K39">
+        <v>18365.2</v>
+      </c>
+      <c r="L39">
+        <v>18365.2</v>
+      </c>
+      <c r="M39">
+        <v>0.16</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F40">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="G40">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="H40">
         <v>3500</v>
       </c>
       <c r="I40">
-        <v>1014</v>
+        <v>2928</v>
       </c>
       <c r="J40">
         <v>149.93</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>31635.23</v>
+      </c>
+      <c r="L40">
+        <v>31635.23</v>
+      </c>
+      <c r="M40">
+        <v>0.27</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F41">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="G41">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="H41">
         <v>12000</v>
       </c>
       <c r="I41">
-        <v>2887</v>
+        <v>6391</v>
       </c>
       <c r="J41">
         <v>44.98</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>21050.64</v>
+      </c>
+      <c r="L41">
+        <v>21050.64</v>
+      </c>
+      <c r="M41">
+        <v>0.18</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="G42">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H42">
-        <v>295</v>
+        <v>3000</v>
       </c>
       <c r="I42">
-        <v>57</v>
+        <v>811</v>
       </c>
       <c r="J42">
-        <v>209.9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>149.92</v>
+      </c>
+      <c r="K42">
+        <v>7945.76</v>
+      </c>
+      <c r="L42">
+        <v>7945.76</v>
+      </c>
+      <c r="M42">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F43">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="G43">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="H43">
-        <v>3000</v>
+        <v>295</v>
       </c>
       <c r="I43">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="J43">
-        <v>149.92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>209.9</v>
+      </c>
+      <c r="K43">
+        <v>3148.5</v>
+      </c>
+      <c r="L43">
+        <v>3148.5</v>
+      </c>
+      <c r="M43">
+        <v>0.03</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F44">
-        <v>434</v>
+        <v>276</v>
       </c>
       <c r="G44">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="H44">
         <v>12000</v>
       </c>
       <c r="I44">
-        <v>1980</v>
+        <v>4551</v>
       </c>
       <c r="J44">
         <v>37.48</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>10344.48</v>
+      </c>
+      <c r="L44">
+        <v>10344.48</v>
+      </c>
+      <c r="M44">
+        <v>0.09</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F45">
-        <v>724</v>
+        <v>556</v>
       </c>
       <c r="G45">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="H45">
         <v>18453</v>
       </c>
       <c r="I45">
-        <v>2938</v>
+        <v>8008</v>
       </c>
       <c r="J45">
         <v>262.37</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>145877.72</v>
+      </c>
+      <c r="L45">
+        <v>139318.47</v>
+      </c>
+      <c r="M45">
+        <v>1.2</v>
+      </c>
+      <c r="N45">
+        <v>6559.25</v>
+      </c>
+      <c r="O45">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F46">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="G46">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="H46">
         <v>3500</v>
       </c>
       <c r="I46">
-        <v>684</v>
+        <v>1435</v>
       </c>
       <c r="J46">
         <v>67.47</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>5734.95</v>
+      </c>
+      <c r="L46">
+        <v>5734.95</v>
+      </c>
+      <c r="M46">
+        <v>0.05</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F47">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G47">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H47">
         <v>1432</v>
       </c>
       <c r="I47">
-        <v>220</v>
+        <v>619</v>
       </c>
       <c r="J47">
         <v>56.22</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>1742.82</v>
+      </c>
+      <c r="L47">
+        <v>1742.82</v>
+      </c>
+      <c r="M47">
+        <v>0.01</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F48">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="G48">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H48">
         <v>15112</v>
       </c>
       <c r="I48">
-        <v>2707</v>
+        <v>8489</v>
       </c>
       <c r="J48">
         <v>22.49</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>13494</v>
+      </c>
+      <c r="L48">
+        <v>13494</v>
+      </c>
+      <c r="M48">
+        <v>0.12</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F49">
-        <v>444</v>
+        <v>66</v>
       </c>
       <c r="G49">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="H49">
-        <v>10000</v>
+        <v>2386</v>
       </c>
       <c r="I49">
-        <v>1735</v>
+        <v>1017</v>
       </c>
       <c r="J49">
-        <v>48.73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>37.48</v>
+      </c>
+      <c r="K49">
+        <v>2473.68</v>
+      </c>
+      <c r="L49">
+        <v>2473.68</v>
+      </c>
+      <c r="M49">
+        <v>0.02</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F50">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G50">
         <v>0.02</v>
       </c>
       <c r="H50">
-        <v>2386</v>
+        <v>1432</v>
       </c>
       <c r="I50">
-        <v>356</v>
+        <v>735</v>
       </c>
       <c r="J50">
-        <v>37.48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>33.73</v>
+      </c>
+      <c r="K50">
+        <v>2698.4</v>
+      </c>
+      <c r="L50">
+        <v>2698.4</v>
+      </c>
+      <c r="M50">
+        <v>0.02</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F51">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="G51">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="H51">
         <v>3000</v>
       </c>
       <c r="I51">
-        <v>706</v>
+        <v>1846</v>
       </c>
       <c r="J51">
         <v>89.95999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>11874.72</v>
+      </c>
+      <c r="L51">
+        <v>11874.72</v>
+      </c>
+      <c r="M51">
+        <v>0.1</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F52">
-        <v>1747</v>
+        <v>1551</v>
       </c>
       <c r="G52">
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
       <c r="H52">
         <v>48000</v>
       </c>
       <c r="I52">
-        <v>8041</v>
+        <v>21814</v>
       </c>
       <c r="J52">
         <v>52.47</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>81380.97</v>
+      </c>
+      <c r="L52">
+        <v>81380.97</v>
+      </c>
+      <c r="M52">
+        <v>0.7</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F53">
-        <v>36</v>
+        <v>289</v>
       </c>
       <c r="G53">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="H53">
-        <v>1432</v>
+        <v>10000</v>
       </c>
       <c r="I53">
-        <v>260</v>
+        <v>4249</v>
       </c>
       <c r="J53">
-        <v>33.73</v>
+        <v>48.73</v>
+      </c>
+      <c r="K53">
+        <v>14082.97</v>
+      </c>
+      <c r="L53">
+        <v>14082.97</v>
+      </c>
+      <c r="M53">
+        <v>0.12</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
